--- a/VT_EREG2_ELC_V12.xlsx
+++ b/VT_EREG2_ELC_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\DemoS_ADV_Stuttgart061118\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16D207E8-31E4-4032-9FC1-B55B9517059B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1612F25E-1FD0-4D1A-9C0F-50BD551B2E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="570" windowWidth="25080" windowHeight="15030" tabRatio="901" activeTab="3"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="12735" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB2" sheetId="133" r:id="rId1"/>
@@ -21,7 +21,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
@@ -41,14 +40,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -188,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -261,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P15" authorId="2" shapeId="0">
+    <comment ref="P15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -440,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q15" authorId="1" shapeId="0">
+    <comment ref="Q15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -465,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R15" authorId="2" shapeId="0">
+    <comment ref="R15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -528,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="2" shapeId="0">
+    <comment ref="J16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -776,14 +775,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="W3" authorId="0" shapeId="0">
+    <comment ref="W3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -897,7 +896,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB3" authorId="1" shapeId="0">
+    <comment ref="AB3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -923,7 +922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC3" authorId="2" shapeId="0">
+    <comment ref="AC3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -996,7 +995,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD3" authorId="2" shapeId="0">
+    <comment ref="AD3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1049,7 +1048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE3" authorId="2" shapeId="0">
+    <comment ref="AE3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1082,7 +1081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC9" authorId="2" shapeId="0">
+    <comment ref="AC9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1175,7 +1174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD9" authorId="1" shapeId="0">
+    <comment ref="AD9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1200,7 +1199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE9" authorId="2" shapeId="0">
+    <comment ref="AE9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1263,7 +1262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W10" authorId="2" shapeId="0">
+    <comment ref="W10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2038,14 +2037,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="188" formatCode="0.0"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2071,32 +2070,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -2613,31 +2586,31 @@
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="126">
@@ -2659,15 +2632,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2676,11 +2649,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9"/>
@@ -2694,91 +2667,91 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="1" fontId="31" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="1" fontId="27" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="24" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="24" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="187" fontId="22" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="20" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="20" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="18" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="7" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="7" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="7" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="7" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="12" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="12" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="22" fillId="7" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="7" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="12" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="188" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="14" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="16" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
@@ -2789,42 +2762,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="12" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="12" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
@@ -2834,57 +2807,57 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="195" fontId="27" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="27" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="23" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2893,29 +2866,29 @@
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="9"/>
-    <cellStyle name="Normal 2" xfId="10"/>
-    <cellStyle name="Normal 4" xfId="11"/>
-    <cellStyle name="Normal 4 2" xfId="12"/>
-    <cellStyle name="Normal 8" xfId="13"/>
-    <cellStyle name="Normal 9 2" xfId="14"/>
-    <cellStyle name="Normale_B2020" xfId="15"/>
-    <cellStyle name="Percent 2" xfId="16"/>
-    <cellStyle name="Percent 3" xfId="17"/>
-    <cellStyle name="Percent 3 2" xfId="18"/>
-    <cellStyle name="Percent 3 3" xfId="19"/>
-    <cellStyle name="Percent 4" xfId="20"/>
-    <cellStyle name="Percent 4 2" xfId="21"/>
-    <cellStyle name="Percent 4 3" xfId="22"/>
-    <cellStyle name="Percent 5" xfId="23"/>
-    <cellStyle name="Percent 6" xfId="24"/>
-    <cellStyle name="Percent 7" xfId="25"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="26"/>
+    <cellStyle name="Normal 10" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 9 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Percent 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Percent 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 3 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 4 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 4 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 5" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 6" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 7" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3771,250 +3744,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="EnergyBalance"/>
-      <sheetName val="EB1"/>
-      <sheetName val="EB2"/>
-      <sheetName val="RES&amp;OBJ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="10">
-          <cell r="D10">
-            <v>-20.173299999999998</v>
-          </cell>
-          <cell r="E10">
-            <v>-475.78800000000001</v>
-          </cell>
-          <cell r="F10">
-            <v>0</v>
-          </cell>
-          <cell r="G10">
-            <v>-16.283999999999999</v>
-          </cell>
-          <cell r="H10">
-            <v>-2.1499999999999998E-2</v>
-          </cell>
-          <cell r="I10">
-            <v>-528.76099999999997</v>
-          </cell>
-          <cell r="J10">
-            <v>-164.50800000000001</v>
-          </cell>
-          <cell r="K10">
-            <v>-0.61599999999999999</v>
-          </cell>
-          <cell r="L10">
-            <v>-205.88</v>
-          </cell>
-          <cell r="M10">
-            <v>0</v>
-          </cell>
-          <cell r="N10">
-            <v>0</v>
-          </cell>
-          <cell r="O10">
-            <v>-1.0707500000000003</v>
-          </cell>
-          <cell r="P10">
-            <v>0</v>
-          </cell>
-          <cell r="Q10">
-            <v>0</v>
-          </cell>
-          <cell r="R10">
-            <v>0</v>
-          </cell>
-          <cell r="S10">
-            <v>-0.76</v>
-          </cell>
-          <cell r="T10">
-            <v>0</v>
-          </cell>
-          <cell r="U10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>-3359.3419999999996</v>
-          </cell>
-          <cell r="E11">
-            <v>-3381.3263999999999</v>
-          </cell>
-          <cell r="F11">
-            <v>0</v>
-          </cell>
-          <cell r="G11">
-            <v>-30.160499999999999</v>
-          </cell>
-          <cell r="H11">
-            <v>0</v>
-          </cell>
-          <cell r="I11">
-            <v>-23.835000000000001</v>
-          </cell>
-          <cell r="J11">
-            <v>0</v>
-          </cell>
-          <cell r="K11">
-            <v>0</v>
-          </cell>
-          <cell r="L11">
-            <v>-524.78</v>
-          </cell>
-          <cell r="M11">
-            <v>-33.529000000000003</v>
-          </cell>
-          <cell r="N11">
-            <v>-5445</v>
-          </cell>
-          <cell r="O11">
-            <v>-175.75306250000006</v>
-          </cell>
-          <cell r="P11">
-            <v>-502.66000000000008</v>
-          </cell>
-          <cell r="Q11">
-            <v>-490.09350000000001</v>
-          </cell>
-          <cell r="R11">
-            <v>-68</v>
-          </cell>
-          <cell r="S11">
-            <v>-16.474499999999999</v>
-          </cell>
-          <cell r="T11">
-            <v>868.77949999999998</v>
-          </cell>
-          <cell r="U11">
-            <v>5790.5</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>-56.488599999999991</v>
-          </cell>
-          <cell r="E12">
-            <v>-180.78059999999999</v>
-          </cell>
-          <cell r="F12">
-            <v>0</v>
-          </cell>
-          <cell r="G12">
-            <v>-7.6189999999999998</v>
-          </cell>
-          <cell r="H12">
-            <v>0</v>
-          </cell>
-          <cell r="I12">
-            <v>-0.23350000000000001</v>
-          </cell>
-          <cell r="J12">
-            <v>0</v>
-          </cell>
-          <cell r="K12">
-            <v>0</v>
-          </cell>
-          <cell r="L12">
-            <v>-15.2</v>
-          </cell>
-          <cell r="M12">
-            <v>-1.772</v>
-          </cell>
-          <cell r="N12">
-            <v>0</v>
-          </cell>
-          <cell r="O12">
-            <v>-35.051749999999998</v>
-          </cell>
-          <cell r="P12">
-            <v>0</v>
-          </cell>
-          <cell r="Q12">
-            <v>0</v>
-          </cell>
-          <cell r="R12">
-            <v>0</v>
-          </cell>
-          <cell r="S12">
-            <v>-0.78449999999999998</v>
-          </cell>
-          <cell r="T12">
-            <v>329.37150000000003</v>
-          </cell>
-          <cell r="U12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>0</v>
-          </cell>
-          <cell r="E13">
-            <v>0</v>
-          </cell>
-          <cell r="F13">
-            <v>-15868.2305</v>
-          </cell>
-          <cell r="G13">
-            <v>5701.34</v>
-          </cell>
-          <cell r="H13">
-            <v>969.47799999999995</v>
-          </cell>
-          <cell r="I13">
-            <v>1086.3040000000001</v>
-          </cell>
-          <cell r="J13">
-            <v>3354.9119999999998</v>
-          </cell>
-          <cell r="K13">
-            <v>970.28800000000001</v>
-          </cell>
-          <cell r="L13">
-            <v>2285.1019999999999</v>
-          </cell>
-          <cell r="M13">
-            <v>1299.9449999999999</v>
-          </cell>
-          <cell r="N13">
-            <v>0</v>
-          </cell>
-          <cell r="O13">
-            <v>0</v>
-          </cell>
-          <cell r="P13">
-            <v>0</v>
-          </cell>
-          <cell r="Q13">
-            <v>0</v>
-          </cell>
-          <cell r="R13">
-            <v>0</v>
-          </cell>
-          <cell r="S13">
-            <v>0</v>
-          </cell>
-          <cell r="T13">
-            <v>0</v>
-          </cell>
-          <cell r="U13">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4362,7 +4091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
@@ -4566,75 +4295,57 @@
         <v>57</v>
       </c>
       <c r="D5" s="54">
-        <f>[2]EB2!D10</f>
         <v>-20.173299999999998</v>
       </c>
       <c r="E5" s="54">
-        <f>[2]EB2!E10</f>
         <v>-475.78800000000001</v>
       </c>
       <c r="F5" s="54">
-        <f>[2]EB2!F10</f>
         <v>0</v>
       </c>
       <c r="G5" s="54">
-        <f>[2]EB2!G10</f>
         <v>-16.283999999999999</v>
       </c>
       <c r="H5" s="54">
-        <f>[2]EB2!H10</f>
         <v>-2.1499999999999998E-2</v>
       </c>
       <c r="I5" s="54">
-        <f>[2]EB2!I10</f>
         <v>-528.76099999999997</v>
       </c>
       <c r="J5" s="54">
-        <f>[2]EB2!J10</f>
         <v>-164.50800000000001</v>
       </c>
       <c r="K5" s="54">
-        <f>[2]EB2!K10</f>
         <v>-0.61599999999999999</v>
       </c>
       <c r="L5" s="54">
-        <f>[2]EB2!L10</f>
         <v>-205.88</v>
       </c>
       <c r="M5" s="54">
-        <f>[2]EB2!M10</f>
         <v>0</v>
       </c>
       <c r="N5" s="54">
-        <f>[2]EB2!N10</f>
         <v>0</v>
       </c>
       <c r="O5" s="54">
-        <f>[2]EB2!O10</f>
         <v>-1.0707500000000003</v>
       </c>
       <c r="P5" s="54">
-        <f>[2]EB2!P10</f>
         <v>0</v>
       </c>
       <c r="Q5" s="54">
-        <f>[2]EB2!Q10</f>
         <v>0</v>
       </c>
       <c r="R5" s="54">
-        <f>[2]EB2!R10</f>
         <v>0</v>
       </c>
       <c r="S5" s="54">
-        <f>[2]EB2!S10</f>
         <v>-0.76</v>
       </c>
       <c r="T5" s="54">
-        <f>[2]EB2!T10</f>
         <v>0</v>
       </c>
       <c r="U5" s="54">
-        <f>[2]EB2!U10</f>
         <v>0</v>
       </c>
       <c r="V5" s="84">
@@ -4650,75 +4361,57 @@
         <v>58</v>
       </c>
       <c r="D6" s="47">
-        <f>[2]EB2!D11</f>
         <v>-3359.3419999999996</v>
       </c>
       <c r="E6" s="48">
-        <f>[2]EB2!E11</f>
         <v>-3381.3263999999999</v>
       </c>
       <c r="F6" s="48">
-        <f>[2]EB2!F11</f>
         <v>0</v>
       </c>
       <c r="G6" s="48">
-        <f>[2]EB2!G11</f>
         <v>-30.160499999999999</v>
       </c>
       <c r="H6" s="48">
-        <f>[2]EB2!H11</f>
         <v>0</v>
       </c>
       <c r="I6" s="48">
-        <f>[2]EB2!I11</f>
         <v>-23.835000000000001</v>
       </c>
       <c r="J6" s="48">
-        <f>[2]EB2!J11</f>
         <v>0</v>
       </c>
       <c r="K6" s="48">
-        <f>[2]EB2!K11</f>
         <v>0</v>
       </c>
       <c r="L6" s="48">
-        <f>[2]EB2!L11</f>
         <v>-524.78</v>
       </c>
       <c r="M6" s="48">
-        <f>[2]EB2!M11</f>
         <v>-33.529000000000003</v>
       </c>
       <c r="N6" s="48">
-        <f>[2]EB2!N11</f>
         <v>-5445</v>
       </c>
       <c r="O6" s="48">
-        <f>[2]EB2!O11</f>
         <v>-175.75306250000006</v>
       </c>
       <c r="P6" s="48">
-        <f>[2]EB2!P11</f>
         <v>-502.66000000000008</v>
       </c>
       <c r="Q6" s="48">
-        <f>[2]EB2!Q11</f>
         <v>-490.09350000000001</v>
       </c>
       <c r="R6" s="48">
-        <f>[2]EB2!R11</f>
         <v>-68</v>
       </c>
       <c r="S6" s="54">
-        <f>[2]EB2!S11</f>
         <v>-16.474499999999999</v>
       </c>
       <c r="T6" s="54">
-        <f>[2]EB2!T11</f>
         <v>868.77949999999998</v>
       </c>
       <c r="U6" s="48">
-        <f>[2]EB2!U11</f>
         <v>5790.5</v>
       </c>
       <c r="V6" s="84">
@@ -4734,75 +4427,57 @@
         <v>60</v>
       </c>
       <c r="D7" s="54">
-        <f>[2]EB2!D12</f>
         <v>-56.488599999999991</v>
       </c>
       <c r="E7" s="54">
-        <f>[2]EB2!E12</f>
         <v>-180.78059999999999</v>
       </c>
       <c r="F7" s="54">
-        <f>[2]EB2!F12</f>
         <v>0</v>
       </c>
       <c r="G7" s="54">
-        <f>[2]EB2!G12</f>
         <v>-7.6189999999999998</v>
       </c>
       <c r="H7" s="54">
-        <f>[2]EB2!H12</f>
         <v>0</v>
       </c>
       <c r="I7" s="54">
-        <f>[2]EB2!I12</f>
         <v>-0.23350000000000001</v>
       </c>
       <c r="J7" s="54">
-        <f>[2]EB2!J12</f>
         <v>0</v>
       </c>
       <c r="K7" s="54">
-        <f>[2]EB2!K12</f>
         <v>0</v>
       </c>
       <c r="L7" s="54">
-        <f>[2]EB2!L12</f>
         <v>-15.2</v>
       </c>
       <c r="M7" s="54">
-        <f>[2]EB2!M12</f>
         <v>-1.772</v>
       </c>
       <c r="N7" s="54">
-        <f>[2]EB2!N12</f>
         <v>0</v>
       </c>
       <c r="O7" s="54">
-        <f>[2]EB2!O12</f>
         <v>-35.051749999999998</v>
       </c>
       <c r="P7" s="54">
-        <f>[2]EB2!P12</f>
         <v>0</v>
       </c>
       <c r="Q7" s="54">
-        <f>[2]EB2!Q12</f>
         <v>0</v>
       </c>
       <c r="R7" s="54">
-        <f>[2]EB2!R12</f>
         <v>0</v>
       </c>
       <c r="S7" s="54">
-        <f>[2]EB2!S12</f>
         <v>-0.78449999999999998</v>
       </c>
       <c r="T7" s="54">
-        <f>[2]EB2!T12</f>
         <v>329.37150000000003</v>
       </c>
       <c r="U7" s="54">
-        <f>[2]EB2!U12</f>
         <v>0</v>
       </c>
       <c r="V7" s="84">
@@ -4818,75 +4493,57 @@
         <v>62</v>
       </c>
       <c r="D8" s="74">
-        <f>[2]EB2!D13</f>
         <v>0</v>
       </c>
       <c r="E8" s="54">
-        <f>[2]EB2!E13</f>
         <v>0</v>
       </c>
       <c r="F8" s="54">
-        <f>[2]EB2!F13</f>
         <v>-15868.2305</v>
       </c>
       <c r="G8" s="54">
-        <f>[2]EB2!G13</f>
         <v>5701.34</v>
       </c>
       <c r="H8" s="54">
-        <f>[2]EB2!H13</f>
         <v>969.47799999999995</v>
       </c>
       <c r="I8" s="54">
-        <f>[2]EB2!I13</f>
         <v>1086.3040000000001</v>
       </c>
       <c r="J8" s="54">
-        <f>[2]EB2!J13</f>
         <v>3354.9119999999998</v>
       </c>
       <c r="K8" s="54">
-        <f>[2]EB2!K13</f>
         <v>970.28800000000001</v>
       </c>
       <c r="L8" s="54">
-        <f>[2]EB2!L13</f>
         <v>2285.1019999999999</v>
       </c>
       <c r="M8" s="54">
-        <f>[2]EB2!M13</f>
         <v>1299.9449999999999</v>
       </c>
       <c r="N8" s="54">
-        <f>[2]EB2!N13</f>
         <v>0</v>
       </c>
       <c r="O8" s="54">
-        <f>[2]EB2!O13</f>
         <v>0</v>
       </c>
       <c r="P8" s="54">
-        <f>[2]EB2!P13</f>
         <v>0</v>
       </c>
       <c r="Q8" s="54">
-        <f>[2]EB2!Q13</f>
         <v>0</v>
       </c>
       <c r="R8" s="54">
-        <f>[2]EB2!R13</f>
         <v>0</v>
       </c>
       <c r="S8" s="54">
-        <f>[2]EB2!S13</f>
         <v>0</v>
       </c>
       <c r="T8" s="54">
-        <f>[2]EB2!T13</f>
         <v>0</v>
       </c>
       <c r="U8" s="54">
-        <f>[2]EB2!U13</f>
         <v>0</v>
       </c>
       <c r="V8" s="84">
@@ -5058,7 +4715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
@@ -5123,7 +4780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6057,11 +5714,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AE33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7052,7 +6709,7 @@
         <v>2</v>
       </c>
       <c r="Q17" s="74">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="R17" s="92">
         <v>31.536000000000001</v>
@@ -7329,7 +6986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/VT_EREG2_ELC_V12.xlsx
+++ b/VT_EREG2_ELC_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Veda\Veda\Veda_models\Model_Demo_Adv_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1612F25E-1FD0-4D1A-9C0F-50BD551B2E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52E2B3B-1269-4041-B8FC-88B8AC5B2C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="12735" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11423" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB2" sheetId="133" r:id="rId1"/>
@@ -24,6 +24,32 @@
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
+    <definedName name="IQ_CH">110000</definedName>
+    <definedName name="IQ_CQ">5000</definedName>
+    <definedName name="IQ_CY">10000</definedName>
+    <definedName name="IQ_DAILY">500000</definedName>
+    <definedName name="IQ_FH">100000</definedName>
+    <definedName name="IQ_FQ">500</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_FY">1000</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTM">2000</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_MONTH">15000</definedName>
+    <definedName name="IQ_NTM">6000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_WEEK">50000</definedName>
+    <definedName name="IQ_YTD">3000</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1510,7 +1536,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="176">
   <si>
     <t>CommName</t>
   </si>
@@ -2032,6 +2058,12 @@
   </si>
   <si>
     <t>~FI_T: Stock~2000</t>
+  </si>
+  <si>
+    <t>BE,NL,UK</t>
+  </si>
+  <si>
+    <t>ELC,COMx</t>
   </si>
 </sst>
 </file>
@@ -2613,30 +2645,26 @@
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2657,14 +2685,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
@@ -2687,12 +2711,12 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2707,7 +2731,7 @@
     <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="20" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="20" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="18" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2720,7 +2744,7 @@
     <xf numFmtId="165" fontId="8" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="8" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2757,12 +2781,11 @@
     <xf numFmtId="9" fontId="3" fillId="16" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2777,23 +2800,20 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="8" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2813,17 +2833,10 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2835,21 +2848,14 @@
     <xf numFmtId="167" fontId="23" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="23" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3610,7 +3616,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -4095,29 +4101,29 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:AA17"/>
+  <dimension ref="B1:AA17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="10.85546875" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.86328125" customWidth="1"/>
+    <col min="8" max="8" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.86328125" customWidth="1"/>
+    <col min="13" max="13" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="10.86328125" customWidth="1"/>
+    <col min="22" max="22" width="7.265625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="X1" s="22" t="s">
+    <row r="1" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="X1" s="18" t="s">
         <v>79</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -4130,583 +4136,578 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="7"/>
-      <c r="D2" s="44" t="s">
+    <row r="2" spans="2:27" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="D2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="44" t="s">
+      <c r="T2" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="64" t="s">
+      <c r="Y2" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AA2" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C3" s="99" t="s">
+    <row r="3" spans="2:27" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C3" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="97" t="s">
+      <c r="G3" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="97" t="s">
+      <c r="H3" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="I3" s="97" t="s">
+      <c r="I3" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="J3" s="97" t="s">
+      <c r="J3" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="97" t="s">
+      <c r="K3" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="L3" s="97" t="s">
+      <c r="L3" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="M3" s="97" t="s">
+      <c r="M3" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="N3" s="97" t="s">
+      <c r="N3" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="97" t="s">
+      <c r="O3" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="P3" s="97" t="s">
+      <c r="P3" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="Q3" s="97" t="s">
+      <c r="Q3" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="R3" s="97" t="s">
+      <c r="R3" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="S3" s="97" t="s">
+      <c r="S3" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="97" t="s">
+      <c r="T3" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="98" t="s">
+      <c r="U3" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="45" t="s">
+      <c r="V3" s="37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B4" s="49"/>
-      <c r="C4" s="82" t="s">
+    <row r="4" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B4" s="41"/>
+      <c r="C4" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="83"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="46" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="74"/>
+    </row>
+    <row r="5" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B5" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="46">
         <v>-20.173299999999998</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="46">
         <v>-475.78800000000001</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="46">
         <v>0</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="46">
         <v>-16.283999999999999</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="46">
         <v>-2.1499999999999998E-2</v>
       </c>
-      <c r="I5" s="54">
+      <c r="I5" s="46">
         <v>-528.76099999999997</v>
       </c>
-      <c r="J5" s="54">
+      <c r="J5" s="46">
         <v>-164.50800000000001</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="46">
         <v>-0.61599999999999999</v>
       </c>
-      <c r="L5" s="54">
+      <c r="L5" s="46">
         <v>-205.88</v>
       </c>
-      <c r="M5" s="54">
+      <c r="M5" s="46">
         <v>0</v>
       </c>
-      <c r="N5" s="54">
+      <c r="N5" s="46">
         <v>0</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="46">
         <v>-1.0707500000000003</v>
       </c>
-      <c r="P5" s="54">
+      <c r="P5" s="46">
         <v>0</v>
       </c>
-      <c r="Q5" s="54">
+      <c r="Q5" s="46">
         <v>0</v>
       </c>
-      <c r="R5" s="54">
+      <c r="R5" s="46">
         <v>0</v>
       </c>
-      <c r="S5" s="54">
+      <c r="S5" s="46">
         <v>-0.76</v>
       </c>
-      <c r="T5" s="54">
+      <c r="T5" s="46">
         <v>0</v>
       </c>
-      <c r="U5" s="54">
+      <c r="U5" s="46">
         <v>0</v>
       </c>
-      <c r="V5" s="84">
+      <c r="V5" s="75">
         <f>SUM(D5:U5)</f>
         <v>-1413.8625499999998</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="s">
+    <row r="6" spans="2:27" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B6" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="39">
         <v>-3359.3419999999996</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="40">
         <v>-3381.3263999999999</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="40">
         <v>0</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="40">
         <v>-30.160499999999999</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="40">
         <v>0</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="40">
         <v>-23.835000000000001</v>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="40">
         <v>0</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="40">
         <v>0</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="40">
         <v>-524.78</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="40">
         <v>-33.529000000000003</v>
       </c>
-      <c r="N6" s="48">
+      <c r="N6" s="40">
         <v>-5445</v>
       </c>
-      <c r="O6" s="48">
+      <c r="O6" s="40">
         <v>-175.75306250000006</v>
       </c>
-      <c r="P6" s="48">
+      <c r="P6" s="40">
         <v>-502.66000000000008</v>
       </c>
-      <c r="Q6" s="48">
+      <c r="Q6" s="40">
         <v>-490.09350000000001</v>
       </c>
-      <c r="R6" s="48">
+      <c r="R6" s="40">
         <v>-68</v>
       </c>
-      <c r="S6" s="54">
+      <c r="S6" s="46">
         <v>-16.474499999999999</v>
       </c>
-      <c r="T6" s="54">
+      <c r="T6" s="46">
         <v>868.77949999999998</v>
       </c>
-      <c r="U6" s="48">
+      <c r="U6" s="40">
         <v>5790.5</v>
       </c>
-      <c r="V6" s="84">
+      <c r="V6" s="75">
         <f>SUM(D6:U6)</f>
         <v>-7391.674462500001</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B7" s="46" t="s">
+    <row r="7" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="46">
         <v>-56.488599999999991</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="46">
         <v>-180.78059999999999</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="46">
         <v>0</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="46">
         <v>-7.6189999999999998</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="46">
         <v>0</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="46">
         <v>-0.23350000000000001</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="46">
         <v>0</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="46">
         <v>0</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="46">
         <v>-15.2</v>
       </c>
-      <c r="M7" s="54">
+      <c r="M7" s="46">
         <v>-1.772</v>
       </c>
-      <c r="N7" s="54">
+      <c r="N7" s="46">
         <v>0</v>
       </c>
-      <c r="O7" s="54">
+      <c r="O7" s="46">
         <v>-35.051749999999998</v>
       </c>
-      <c r="P7" s="54">
+      <c r="P7" s="46">
         <v>0</v>
       </c>
-      <c r="Q7" s="54">
+      <c r="Q7" s="46">
         <v>0</v>
       </c>
-      <c r="R7" s="54">
+      <c r="R7" s="46">
         <v>0</v>
       </c>
-      <c r="S7" s="54">
+      <c r="S7" s="46">
         <v>-0.78449999999999998</v>
       </c>
-      <c r="T7" s="54">
+      <c r="T7" s="46">
         <v>329.37150000000003</v>
       </c>
-      <c r="U7" s="54">
+      <c r="U7" s="46">
         <v>0</v>
       </c>
-      <c r="V7" s="84">
+      <c r="V7" s="75">
         <f>SUM(D7:U7)</f>
         <v>31.441550000000063</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B8" s="46" t="s">
+    <row r="8" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B8" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="46">
         <v>0</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="46">
         <v>0</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="46">
         <v>-15868.2305</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="46">
         <v>5701.34</v>
       </c>
-      <c r="H8" s="54">
+      <c r="H8" s="46">
         <v>969.47799999999995</v>
       </c>
-      <c r="I8" s="54">
+      <c r="I8" s="46">
         <v>1086.3040000000001</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="46">
         <v>3354.9119999999998</v>
       </c>
-      <c r="K8" s="54">
+      <c r="K8" s="46">
         <v>970.28800000000001</v>
       </c>
-      <c r="L8" s="54">
+      <c r="L8" s="46">
         <v>2285.1019999999999</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8" s="46">
         <v>1299.9449999999999</v>
       </c>
-      <c r="N8" s="54">
+      <c r="N8" s="46">
         <v>0</v>
       </c>
-      <c r="O8" s="54">
+      <c r="O8" s="46">
         <v>0</v>
       </c>
-      <c r="P8" s="54">
+      <c r="P8" s="46">
         <v>0</v>
       </c>
-      <c r="Q8" s="54">
+      <c r="Q8" s="46">
         <v>0</v>
       </c>
-      <c r="R8" s="54">
+      <c r="R8" s="46">
         <v>0</v>
       </c>
-      <c r="S8" s="54">
+      <c r="S8" s="46">
         <v>0</v>
       </c>
-      <c r="T8" s="54">
+      <c r="T8" s="46">
         <v>0</v>
       </c>
-      <c r="U8" s="54">
+      <c r="U8" s="46">
         <v>0</v>
       </c>
-      <c r="V8" s="84">
+      <c r="V8" s="75">
         <f>SUM(D8:U8)</f>
         <v>-200.86150000000021</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
-      <c r="C9" s="50" t="s">
+    <row r="9" spans="2:27" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="49">
         <f>SUM(D5:D8)</f>
         <v>-3436.0038999999997</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="43">
         <f t="shared" ref="E9:U9" si="0">SUM(E5:E8)</f>
         <v>-4037.895</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="43">
         <f t="shared" si="0"/>
         <v>-15868.2305</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="43">
         <f t="shared" si="0"/>
         <v>5647.2764999999999</v>
       </c>
-      <c r="H9" s="51">
+      <c r="H9" s="43">
         <f t="shared" si="0"/>
         <v>969.45650000000001</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="43">
         <f t="shared" si="0"/>
         <v>533.47450000000003</v>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="43">
         <f t="shared" si="0"/>
         <v>3190.404</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="43">
         <f t="shared" si="0"/>
         <v>969.67200000000003</v>
       </c>
-      <c r="L9" s="51">
+      <c r="L9" s="43">
         <f t="shared" si="0"/>
         <v>1539.2419999999997</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="43">
         <f t="shared" si="0"/>
         <v>1264.644</v>
       </c>
-      <c r="N9" s="51">
+      <c r="N9" s="43">
         <f t="shared" si="0"/>
         <v>-5445</v>
       </c>
-      <c r="O9" s="51">
+      <c r="O9" s="43">
         <f t="shared" si="0"/>
         <v>-211.87556250000006</v>
       </c>
-      <c r="P9" s="51">
+      <c r="P9" s="43">
         <f t="shared" si="0"/>
         <v>-502.66000000000008</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="Q9" s="43">
         <f t="shared" si="0"/>
         <v>-490.09350000000001</v>
       </c>
-      <c r="R9" s="51">
+      <c r="R9" s="43">
         <f t="shared" si="0"/>
         <v>-68</v>
       </c>
-      <c r="S9" s="51">
+      <c r="S9" s="43">
         <f t="shared" si="0"/>
         <v>-18.019000000000002</v>
       </c>
-      <c r="T9" s="51">
+      <c r="T9" s="43">
         <f t="shared" si="0"/>
         <v>1198.1510000000001</v>
       </c>
-      <c r="U9" s="51">
+      <c r="U9" s="43">
         <f t="shared" si="0"/>
         <v>5790.5</v>
       </c>
-      <c r="V9" s="52">
+      <c r="V9" s="44">
         <f>SUM(V5:V8)</f>
         <v>-8974.9569625000022</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="D10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="C12" s="48" t="s">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="D10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="D11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="2:27" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="C12" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C15" s="59" t="s">
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="15" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="C15" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="53" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B16" s="22" t="s">
+    <row r="16" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B16" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="54" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="46" t="s">
+    <row r="17" spans="2:5" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B17" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="89">
+      <c r="C17" s="80">
         <v>1</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="90"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="81"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4720,54 +4721,49 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.86328125" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" customWidth="1"/>
+    <col min="3" max="3" width="6.86328125" customWidth="1"/>
+    <col min="4" max="4" width="7.1328125" customWidth="1"/>
+    <col min="14" max="14" width="5.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D1" s="6"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="2:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="B2" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="4" spans="2:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="D4" s="85"/>
-      <c r="E4" s="123" t="s">
+    </row>
+    <row r="4" spans="2:13" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="D4" s="76"/>
+      <c r="E4" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="125"/>
-    </row>
-    <row r="5" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="77" t="s">
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="103"/>
+    </row>
+    <row r="5" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4787,521 +4783,493 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="2.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="11" max="11" width="7.1328125" customWidth="1"/>
+    <col min="12" max="12" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="61.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1328125" customWidth="1"/>
+    <col min="15" max="15" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.86328125" customWidth="1"/>
+    <col min="17" max="17" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="2:18" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="2:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="str">
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="2:18" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B2" s="10" t="str">
         <f>'EB2'!B6</f>
         <v>ELC</v>
       </c>
-      <c r="C2" s="21" t="str">
+      <c r="C2" s="17" t="str">
         <f>'EB2'!C6</f>
         <v>Electricity Plants</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="10" t="str">
         <f>'EB2'!Z2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="10" t="str">
         <f>'EB2'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="J2" s="106" t="s">
+      <c r="H2" s="9"/>
+      <c r="J2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J3" s="108" t="s">
+      <c r="K2" s="91"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+    </row>
+    <row r="3" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="J3" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="109" t="s">
+      <c r="K3" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="108" t="s">
+      <c r="Q3" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="108" t="s">
+      <c r="R3" s="93" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="J4" s="110" t="s">
+    <row r="4" spans="2:18" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="J4" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="110" t="s">
+      <c r="Q4" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="110" t="s">
+      <c r="R4" s="95" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="15"/>
-      <c r="I5"/>
-      <c r="J5" s="111" t="s">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="11"/>
+      <c r="J5" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111" t="str">
+      <c r="K5" s="96"/>
+      <c r="L5" s="96" t="str">
         <f>$B$2&amp;'EB2'!$D$2</f>
         <v>ELCCOA</v>
       </c>
-      <c r="M5" s="112" t="str">
+      <c r="M5" s="97" t="str">
         <f>$C$2&amp;" "&amp;'EB2'!$D$3</f>
         <v>Electricity Plants Solid Fuels</v>
       </c>
-      <c r="N5" s="111" t="str">
+      <c r="N5" s="96" t="str">
         <f t="shared" ref="N5:N12" si="0">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
-    </row>
-    <row r="6" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="15"/>
-      <c r="I6"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111" t="str">
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="11"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96" t="str">
         <f>$B$2&amp;'EB2'!$E$2</f>
         <v>ELCGAS</v>
       </c>
-      <c r="M6" s="112" t="str">
+      <c r="M6" s="97" t="str">
         <f>$C$2&amp;" "&amp;'EB2'!$E$3</f>
         <v>Electricity Plants Natural Gas</v>
       </c>
-      <c r="N6" s="111" t="str">
+      <c r="N6" s="96" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-    </row>
-    <row r="7" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="15"/>
-      <c r="I7"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111" t="str">
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="11"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96" t="str">
         <f>$B$2&amp;'EB2'!$F$2</f>
         <v>ELCOIL</v>
       </c>
-      <c r="M7" s="112" t="str">
+      <c r="M7" s="97" t="str">
         <f>$C$2&amp;" "&amp;RIGHT('EB2'!$F$3,3)</f>
         <v>Electricity Plants Oil</v>
       </c>
-      <c r="N7" s="111" t="str">
+      <c r="N7" s="96" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
-    </row>
-    <row r="8" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="15"/>
-      <c r="I8"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111" t="str">
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="11"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96" t="str">
         <f>$B$2&amp;'EB2'!$N$2</f>
         <v>ELCNUC</v>
       </c>
-      <c r="M8" s="112" t="str">
+      <c r="M8" s="97" t="str">
         <f>$C$2&amp;" "&amp;'EB2'!$N$3</f>
         <v>Electricity Plants Nuclear Energy</v>
       </c>
-      <c r="N8" s="111" t="str">
+      <c r="N8" s="96" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="15"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111" t="str">
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="11"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96" t="str">
         <f>$B$2&amp;'EB2'!$O$2</f>
         <v>ELCBIO</v>
       </c>
-      <c r="M9" s="112" t="str">
+      <c r="M9" s="97" t="str">
         <f>$C$2&amp;" "&amp;'EB2'!$O$3</f>
         <v>Electricity Plants Biomass</v>
       </c>
-      <c r="N9" s="111" t="str">
+      <c r="N9" s="96" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="15"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111" t="str">
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="96"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="11"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96" t="str">
         <f>$B$2&amp;'EB2'!$P$2</f>
         <v>ELCHYD</v>
       </c>
-      <c r="M10" s="112" t="str">
+      <c r="M10" s="97" t="str">
         <f>$C$2&amp;" "&amp;'EB2'!$P$3</f>
         <v>Electricity Plants Hydro power</v>
       </c>
-      <c r="N10" s="111" t="str">
+      <c r="N10" s="96" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="15"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111" t="str">
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="11"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96" t="str">
         <f>$B$2&amp;'EB2'!$Q$2</f>
         <v>ELCWIN</v>
       </c>
-      <c r="M11" s="112" t="str">
+      <c r="M11" s="97" t="str">
         <f>$C$2&amp;" "&amp;'EB2'!$Q$3</f>
         <v>Electricity Plants Wind energy</v>
       </c>
-      <c r="N11" s="111" t="str">
+      <c r="N11" s="96" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="15"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111" t="str">
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="11"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96" t="str">
         <f>$B$2&amp;'EB2'!$R$2</f>
         <v>ELCSOL</v>
       </c>
-      <c r="M12" s="112" t="str">
+      <c r="M12" s="97" t="str">
         <f>$C$2&amp;" "&amp;'EB2'!$R$3</f>
         <v>Electricity Plants Solar energy</v>
       </c>
-      <c r="N12" s="111" t="str">
+      <c r="N12" s="96" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L13" s="27"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="96"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="J14" s="106" t="s">
+      <c r="J14" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="106"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="19" t="s">
+      <c r="K14" s="91"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="96"/>
+    </row>
+    <row r="15" spans="2:18" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="F15" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="79" t="s">
+      <c r="H15" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="108" t="s">
+      <c r="J15" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="109" t="s">
+      <c r="K15" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="108" t="s">
+      <c r="L15" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="108" t="s">
+      <c r="M15" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="108" t="s">
+      <c r="N15" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="108" t="s">
+      <c r="O15" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="108" t="s">
+      <c r="P15" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" s="108" t="s">
+      <c r="Q15" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="108" t="s">
+      <c r="R15" s="93" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="2:18" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="110" t="s">
+      <c r="J16" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="110" t="s">
+      <c r="K16" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="110" t="s">
+      <c r="L16" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="110" t="s">
+      <c r="M16" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="110" t="s">
+      <c r="N16" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="110" t="s">
+      <c r="O16" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="110" t="s">
+      <c r="P16" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="Q16" s="110" t="s">
+      <c r="Q16" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="110" t="s">
+      <c r="R16" s="95" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="43" t="s">
+    <row r="17" spans="2:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="str">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="str">
         <f>F2&amp;"a"</f>
         <v>M€2005a</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17" t="s">
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="110" t="s">
+      <c r="J17" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="114"/>
-      <c r="R17" s="114"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="str">
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B18" s="20" t="str">
         <f>Sector_Fuels!L18</f>
         <v>FTE-ELCCOA</v>
       </c>
@@ -5309,44 +5277,44 @@
         <f>RIGHT(D18,3)</f>
         <v>COA</v>
       </c>
-      <c r="D18" s="24" t="str">
+      <c r="D18" s="20" t="str">
         <f>L5</f>
         <v>ELCCOA</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="68">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="60">
         <v>1</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="57">
         <v>30</v>
       </c>
-      <c r="J18" s="115" t="s">
+      <c r="J18" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="116"/>
-      <c r="L18" s="111" t="str">
+      <c r="K18" s="99"/>
+      <c r="L18" s="96" t="str">
         <f t="shared" ref="L18:L25" si="1">"FT"&amp;$G$2&amp;"-"&amp;L5</f>
         <v>FTE-ELCCOA</v>
       </c>
-      <c r="M18" s="112" t="str">
+      <c r="M18" s="97" t="str">
         <f t="shared" ref="M18:M25" si="2">$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M5</f>
         <v>Sector Fuel Technology Existing Electricity Plants Solid Fuels</v>
       </c>
-      <c r="N18" s="111" t="str">
+      <c r="N18" s="96" t="str">
         <f t="shared" ref="N18:N25" si="3">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O18" s="111" t="str">
+      <c r="O18" s="96" t="str">
         <f t="shared" ref="O18:O25" si="4">$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="111"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="24" t="str">
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B19" s="20" t="str">
         <f>Sector_Fuels!L19</f>
         <v>FTE-ELCGAS</v>
       </c>
@@ -5354,42 +5322,42 @@
         <f>RIGHT(D19,3)</f>
         <v>GAS</v>
       </c>
-      <c r="D19" s="24" t="str">
+      <c r="D19" s="20" t="str">
         <f>L6</f>
         <v>ELCGAS</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="68">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="60">
         <v>1</v>
       </c>
-      <c r="H19" s="65">
+      <c r="H19" s="57">
         <v>30</v>
       </c>
-      <c r="J19" s="117"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="111" t="str">
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="96" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCGAS</v>
       </c>
-      <c r="M19" s="112" t="str">
+      <c r="M19" s="97" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Natural Gas</v>
       </c>
-      <c r="N19" s="111" t="str">
+      <c r="N19" s="96" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O19" s="111" t="str">
+      <c r="O19" s="96" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="111"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="24" t="str">
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B20" s="20" t="str">
         <f>Sector_Fuels!L20</f>
         <v>FTE-ELCOIL</v>
       </c>
@@ -5397,153 +5365,153 @@
         <f>'EB2'!G$2</f>
         <v>DSL</v>
       </c>
-      <c r="D20" s="24" t="str">
+      <c r="D20" s="20" t="str">
         <f>L7</f>
         <v>ELCOIL</v>
       </c>
-      <c r="E20" s="70">
+      <c r="E20" s="62">
         <f>-'EB2'!G$6/-SUM('EB2'!$G$6:$M$6)</f>
         <v>4.9257354796510562E-2</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="68">
+      <c r="F20" s="12"/>
+      <c r="G20" s="60">
         <v>1</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="57">
         <v>30</v>
       </c>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="111" t="str">
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="96" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCOIL</v>
       </c>
-      <c r="M20" s="112" t="str">
+      <c r="M20" s="97" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Oil</v>
       </c>
-      <c r="N20" s="111" t="str">
+      <c r="N20" s="96" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O20" s="111" t="str">
+      <c r="O20" s="96" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="24"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B21" s="20"/>
       <c r="C21" t="str">
         <f>'EB2'!I$2</f>
         <v>LPG</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="70">
+      <c r="D21" s="20"/>
+      <c r="E21" s="62">
         <f>-'EB2'!I$6/-SUM('EB2'!$G$6:$M$6)</f>
         <v>3.8926710484734312E-2</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="65"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="111" t="str">
+      <c r="F21" s="12"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="57"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="96" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCNUC</v>
       </c>
-      <c r="M21" s="112" t="str">
+      <c r="M21" s="97" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Nuclear Energy</v>
       </c>
-      <c r="N21" s="111" t="str">
+      <c r="N21" s="96" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O21" s="111" t="str">
+      <c r="O21" s="96" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="111"/>
-      <c r="R21" s="111"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="24"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="96"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B22" s="20"/>
       <c r="C22" t="str">
         <f>'EB2'!L$2</f>
         <v>HFO</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="70">
+      <c r="D22" s="20"/>
+      <c r="E22" s="62">
         <f>-'EB2'!L$6/-SUM('EB2'!$G$6:$M$6)</f>
         <v>0.85705723214511731</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="65"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="111" t="str">
+      <c r="F22" s="12"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="57"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCBIO</v>
       </c>
-      <c r="M22" s="112" t="str">
+      <c r="M22" s="97" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Biomass</v>
       </c>
-      <c r="N22" s="111" t="str">
+      <c r="N22" s="96" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O22" s="111" t="str">
+      <c r="O22" s="96" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P22" s="120"/>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="111"/>
-    </row>
-    <row r="23" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="24"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
+    </row>
+    <row r="23" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="20"/>
       <c r="C23" t="str">
         <f>'EB2'!M$2</f>
         <v>OPP</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="70">
+      <c r="D23" s="20"/>
+      <c r="E23" s="62">
         <f>-'EB2'!M$6/-SUM('EB2'!$G$6:$M$6)</f>
         <v>5.4758702573637796E-2</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="65"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="111" t="str">
+      <c r="F23" s="12"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="57"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCHYD</v>
       </c>
-      <c r="M23" s="112" t="str">
+      <c r="M23" s="97" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Hydro power</v>
       </c>
-      <c r="N23" s="111" t="str">
+      <c r="N23" s="96" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O23" s="111" t="str">
+      <c r="O23" s="96" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="28" t="str">
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B24" s="20" t="str">
         <f>Sector_Fuels!L21</f>
         <v>FTE-ELCNUC</v>
       </c>
@@ -5551,42 +5519,42 @@
         <f>RIGHT(D24,3)</f>
         <v>NUC</v>
       </c>
-      <c r="D24" s="24" t="str">
+      <c r="D24" s="20" t="str">
         <f>L8</f>
         <v>ELCNUC</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="68">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="60">
         <v>1</v>
       </c>
-      <c r="H24" s="65">
+      <c r="H24" s="57">
         <v>30</v>
       </c>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="111" t="str">
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCWIN</v>
       </c>
-      <c r="M24" s="112" t="str">
+      <c r="M24" s="97" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Wind energy</v>
       </c>
-      <c r="N24" s="111" t="str">
+      <c r="N24" s="96" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O24" s="111" t="str">
+      <c r="O24" s="96" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="28" t="str">
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B25" s="20" t="str">
         <f>Sector_Fuels!L22</f>
         <v>FTE-ELCBIO</v>
       </c>
@@ -5594,42 +5562,42 @@
         <f>RIGHT(D25,3)</f>
         <v>BIO</v>
       </c>
-      <c r="D25" s="24" t="str">
+      <c r="D25" s="20" t="str">
         <f>L9</f>
         <v>ELCBIO</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="68">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="60">
         <v>1</v>
       </c>
-      <c r="H25" s="65">
+      <c r="H25" s="57">
         <v>30</v>
       </c>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="111" t="str">
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCSOL</v>
       </c>
-      <c r="M25" s="112" t="str">
+      <c r="M25" s="97" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Solar energy</v>
       </c>
-      <c r="N25" s="111" t="str">
+      <c r="N25" s="96" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O25" s="111" t="str">
+      <c r="O25" s="96" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="113"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="28" t="str">
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B26" s="20" t="str">
         <f>Sector_Fuels!L23</f>
         <v>FTE-ELCHYD</v>
       </c>
@@ -5637,21 +5605,21 @@
         <f>RIGHT(D26,3)</f>
         <v>HYD</v>
       </c>
-      <c r="D26" s="24" t="str">
+      <c r="D26" s="20" t="str">
         <f>L10</f>
         <v>ELCHYD</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="68">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="60">
         <v>1</v>
       </c>
-      <c r="H26" s="65">
+      <c r="H26" s="57">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="28" t="str">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B27" s="20" t="str">
         <f>Sector_Fuels!L24</f>
         <v>FTE-ELCWIN</v>
       </c>
@@ -5659,21 +5627,21 @@
         <f>RIGHT(D27,3)</f>
         <v>WIN</v>
       </c>
-      <c r="D27" s="24" t="str">
+      <c r="D27" s="20" t="str">
         <f>L11</f>
         <v>ELCWIN</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="68">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="60">
         <v>1</v>
       </c>
-      <c r="H27" s="65">
+      <c r="H27" s="57">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="28" t="str">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B28" s="20" t="str">
         <f>Sector_Fuels!L25</f>
         <v>FTE-ELCSOL</v>
       </c>
@@ -5681,27 +5649,27 @@
         <f>RIGHT(D28,3)</f>
         <v>SOL</v>
       </c>
-      <c r="D28" s="24" t="str">
+      <c r="D28" s="20" t="str">
         <f>L12</f>
         <v>ELCSOL</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="68">
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="60">
         <v>1</v>
       </c>
-      <c r="H28" s="65">
+      <c r="H28" s="57">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="56"/>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B32" s="48"/>
       <c r="C32" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="66"/>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="58"/>
       <c r="C33" s="1" t="s">
         <v>147</v>
       </c>
@@ -5718,283 +5686,281 @@
   <dimension ref="B1:AE33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3" style="24" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.140625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="10" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="24" customWidth="1"/>
-    <col min="18" max="18" width="15" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2" style="27" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.28515625" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.73046875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="12.86328125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="13" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.86328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.86328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.1328125" style="20" customWidth="1"/>
+    <col min="14" max="14" width="10" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.86328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.86328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.86328125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="15" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2" style="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.59765625" style="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2" style="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="43.265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.265625" customWidth="1"/>
+    <col min="28" max="28" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.59765625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="24"/>
+    <col min="31" max="31" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.86328125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="2:31" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="23" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="19" t="s">
         <v>85</v>
       </c>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="2:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="str">
+    <row r="2" spans="2:31" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B2" s="10" t="str">
         <f>'EB2'!B6</f>
         <v>ELC</v>
       </c>
-      <c r="C2" s="21" t="str">
+      <c r="C2" s="17" t="str">
         <f>'EB2'!C6</f>
         <v>Electricity Plants</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="14" t="str">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="10" t="str">
         <f>'EB2'!Z2</f>
         <v>PJ</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="14" t="str">
+      <c r="I2" s="10" t="str">
         <f>'EB2'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="10" t="s">
         <v>86</v>
       </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="W2" s="106" t="s">
+      <c r="W2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-    </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W3" s="108" t="s">
+      <c r="X2" s="91"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="92"/>
+    </row>
+    <row r="3" spans="2:31" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="W3" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="109" t="s">
+      <c r="X3" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="108" t="s">
+      <c r="Y3" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="Z3" s="108" t="s">
+      <c r="Z3" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="108" t="s">
+      <c r="AA3" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="108" t="s">
+      <c r="AB3" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="108" t="s">
+      <c r="AC3" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="108" t="s">
+      <c r="AD3" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="108" t="s">
+      <c r="AE3" s="93" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:31" s="26" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
+    <row r="4" spans="2:31" ht="22.15" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="110" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="W4" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="110" t="s">
+      <c r="X4" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="110" t="s">
+      <c r="Y4" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="110" t="s">
+      <c r="Z4" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="110" t="s">
+      <c r="AA4" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="110" t="s">
+      <c r="AB4" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="110" t="s">
+      <c r="AC4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="AD4" s="110" t="s">
+      <c r="AD4" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="AE4" s="110" t="s">
+      <c r="AE4" s="95" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:31" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="2:31" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B5" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="115" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="W5" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="X5" s="111"/>
-      <c r="Y5" s="115" t="str">
+      <c r="X5" s="96"/>
+      <c r="Y5" s="92" t="str">
         <f>'EB2'!$U$2</f>
         <v>ELC</v>
       </c>
-      <c r="Z5" s="115" t="str">
+      <c r="Z5" s="92" t="str">
         <f>'EB2'!$U$3</f>
         <v>Electricity</v>
       </c>
-      <c r="AA5" s="115" t="str">
+      <c r="AA5" s="92" t="str">
         <f>$G$2</f>
         <v>PJ</v>
       </c>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115" t="s">
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="AD5" s="115"/>
-      <c r="AE5" s="115" t="s">
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="W6" s="113" t="s">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="W6" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="113" t="str">
+      <c r="X6" s="96"/>
+      <c r="Y6" s="96" t="str">
         <f>$B$2&amp;'EB2'!C15</f>
         <v>ELCCO2</v>
       </c>
-      <c r="Z6" s="113" t="str">
+      <c r="Z6" s="96" t="str">
         <f>$C$2&amp;" "&amp;'EB2'!$C$16</f>
         <v>Electricity Plants Carbon dioxide</v>
       </c>
-      <c r="AA6" s="113" t="str">
+      <c r="AA6" s="96" t="str">
         <f>'EB2'!$AA$2</f>
         <v>kt</v>
       </c>
-      <c r="AB6" s="113"/>
-      <c r="AC6" s="113"/>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="113"/>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="G7" s="24">
+      <c r="AB6" s="96"/>
+      <c r="AC6" s="96"/>
+      <c r="AD6" s="96"/>
+      <c r="AE6" s="96"/>
+    </row>
+    <row r="7" spans="2:31" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="G7" s="20">
         <v>0.1</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="20">
         <v>0.2</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="20">
         <v>0.3</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="20">
         <v>0.4</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:31" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D8" s="4" t="s">
         <v>173</v>
       </c>
@@ -6006,974 +5972,957 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="3"/>
-      <c r="T8" s="26"/>
-      <c r="W8" s="106" t="s">
+      <c r="W8" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="107"/>
-    </row>
-    <row r="9" spans="2:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="20" t="s">
+      <c r="X8" s="91"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="92"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+    </row>
+    <row r="9" spans="2:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="103" t="s">
+      <c r="F9" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="I9" s="79" t="s">
+      <c r="I9" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="J9" s="79" t="s">
+      <c r="J9" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="L9" s="79" t="s">
+      <c r="L9" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="M9" s="79" t="s">
+      <c r="M9" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="79" t="s">
+      <c r="N9" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="O9" s="79" t="s">
+      <c r="O9" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="P9" s="79" t="s">
+      <c r="P9" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="Q9" s="79" t="s">
+      <c r="Q9" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="R9" s="79" t="s">
+      <c r="R9" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="S9" s="79" t="s">
+      <c r="S9" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="95" t="s">
+      <c r="T9" s="22"/>
+      <c r="U9" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="V9" s="35"/>
-      <c r="W9" s="108" t="s">
+      <c r="V9" s="27"/>
+      <c r="W9" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="X9" s="109" t="s">
+      <c r="X9" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="Y9" s="108" t="s">
+      <c r="Y9" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="Z9" s="108" t="s">
+      <c r="Z9" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="AA9" s="108" t="s">
+      <c r="AA9" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="AB9" s="108" t="s">
+      <c r="AB9" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="AC9" s="108" t="s">
+      <c r="AC9" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="108" t="s">
+      <c r="AD9" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="AE9" s="108" t="s">
+      <c r="AE9" s="93" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:31" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="2:31" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="102" t="s">
+      <c r="E10" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="F10" s="102" t="s">
+      <c r="F10" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="94" t="s">
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="M10" s="94" t="s">
+      <c r="M10" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="R10" s="18" t="s">
+      <c r="R10" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="S10" s="94" t="s">
+      <c r="S10" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="T10" s="26"/>
-      <c r="U10" s="38" t="s">
+      <c r="U10" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="V10" s="36"/>
-      <c r="W10" s="110" t="s">
+      <c r="V10" s="28"/>
+      <c r="W10" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="X10" s="110" t="s">
+      <c r="X10" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="Y10" s="110" t="s">
+      <c r="Y10" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="110" t="s">
+      <c r="Z10" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="AA10" s="110" t="s">
+      <c r="AA10" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="AB10" s="110" t="s">
+      <c r="AB10" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="AC10" s="110" t="s">
+      <c r="AC10" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="AD10" s="110" t="s">
+      <c r="AD10" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="AE10" s="110" t="s">
+      <c r="AE10" s="95" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="43" t="s">
+    <row r="11" spans="2:31" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="101" t="str">
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="13" t="str">
         <f>$H$2</f>
         <v>GW</v>
       </c>
-      <c r="F11" s="101" t="str">
+      <c r="F11" s="13" t="str">
         <f>$H$2</f>
         <v>GW</v>
       </c>
-      <c r="G11" s="17" t="str">
+      <c r="G11" s="13" t="str">
         <f>$H$2</f>
         <v>GW</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="80" t="str">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="71" t="str">
         <f>$H$2</f>
         <v>GW</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="17" t="str">
+      <c r="L11" s="13"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="13" t="str">
         <f>$I$2&amp;"/"&amp;$H$2</f>
         <v>M€2005/GW</v>
       </c>
-      <c r="O11" s="17" t="str">
+      <c r="O11" s="13" t="str">
         <f>$I$2&amp;"/"&amp;$H$2</f>
         <v>M€2005/GW</v>
       </c>
-      <c r="P11" s="17" t="str">
+      <c r="P11" s="13" t="str">
         <f>$I$2&amp;"/"&amp;$G$2</f>
         <v>M€2005/PJ</v>
       </c>
-      <c r="Q11" s="17" t="s">
+      <c r="Q11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="R11" s="17" t="str">
+      <c r="R11" s="13" t="str">
         <f>$G$2&amp;"/"&amp;$H$2</f>
         <v>PJ/GW</v>
       </c>
-      <c r="S11" s="17"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="100" t="s">
+      <c r="S11" s="13"/>
+      <c r="U11" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="V11" s="36"/>
-      <c r="W11" s="110" t="s">
+      <c r="V11" s="28"/>
+      <c r="W11" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="110"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="110"/>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="str">
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="95"/>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B12" s="20" t="str">
         <f t="shared" ref="B12:B19" si="0">Y12</f>
         <v>ELCTECOA00</v>
       </c>
-      <c r="C12" s="24" t="str">
+      <c r="C12" s="20" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels!L5,3)</f>
         <v>ELCCOA</v>
       </c>
-      <c r="D12" s="24" t="str">
-        <f t="shared" ref="D12:D19" si="1">$Y$5</f>
+      <c r="D12" s="20" t="str">
+        <f t="shared" ref="D12:D20" si="1">$Y$5</f>
         <v>ELC</v>
       </c>
-      <c r="G12" s="122">
+      <c r="G12" s="100">
         <f>G$7*$G26</f>
         <v>4.812379980302623</v>
       </c>
-      <c r="H12" s="122">
+      <c r="H12" s="100">
         <f>H$7*$G26</f>
         <v>9.6247599606052461</v>
       </c>
-      <c r="I12" s="122">
+      <c r="I12" s="100">
         <f>I$7*$G26</f>
         <v>14.437139940907869</v>
       </c>
-      <c r="J12" s="122">
+      <c r="J12" s="100">
         <f>J$7*$G26</f>
         <v>19.249519921210492</v>
       </c>
-      <c r="K12" s="67">
+      <c r="K12" s="59">
         <v>0</v>
       </c>
-      <c r="L12" s="72">
+      <c r="L12" s="64">
         <v>0.38400000000000001</v>
       </c>
-      <c r="M12" s="72">
+      <c r="M12" s="64">
         <v>0.85</v>
       </c>
-      <c r="N12" s="71"/>
-      <c r="O12" s="72">
+      <c r="N12" s="63"/>
+      <c r="O12" s="64">
         <v>40</v>
       </c>
-      <c r="P12" s="72">
+      <c r="P12" s="64">
         <v>0.5</v>
       </c>
-      <c r="Q12" s="71">
+      <c r="Q12" s="63">
         <v>30</v>
       </c>
-      <c r="R12" s="71">
+      <c r="R12" s="63">
         <v>31.536000000000001</v>
       </c>
-      <c r="S12" s="72">
+      <c r="S12" s="64">
         <v>1</v>
       </c>
-      <c r="T12" s="26"/>
-      <c r="U12" s="34">
+      <c r="U12" s="26">
         <f>G12*$M12*$R12</f>
         <v>128.9987328</v>
       </c>
-      <c r="V12" s="36"/>
-      <c r="W12" s="111" t="s">
+      <c r="V12" s="28"/>
+      <c r="W12" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="X12" s="111"/>
-      <c r="Y12" s="111" t="str">
+      <c r="Y12" s="96" t="str">
         <f>$B$2&amp;$C$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$L$5,3)&amp;"00"</f>
         <v>ELCTECOA00</v>
       </c>
-      <c r="Z12" s="112" t="str">
+      <c r="Z12" s="97" t="str">
         <f>$D$2&amp;" "&amp;$J$1&amp;RIGHT(Y12,2)&amp;" - "&amp;'EB2'!D3</f>
         <v>Power Plants Existing00 - Solid Fuels</v>
       </c>
-      <c r="AA12" s="111" t="str">
+      <c r="AA12" s="96" t="str">
         <f t="shared" ref="AA12:AA19" si="2">$G$2</f>
         <v>PJ</v>
       </c>
-      <c r="AB12" s="111" t="str">
+      <c r="AB12" s="96" t="str">
         <f t="shared" ref="AB12:AB19" si="3">$H$2</f>
         <v>GW</v>
       </c>
-      <c r="AC12" s="115" t="s">
+      <c r="AC12" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="AD12" s="111"/>
-      <c r="AE12" s="111"/>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="str">
+      <c r="AD12" s="96"/>
+      <c r="AE12" s="96"/>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>ELCTEGAS00</v>
       </c>
-      <c r="C13" s="24" t="str">
+      <c r="C13" s="20" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels!L6,3)</f>
         <v>ELCGAS</v>
       </c>
-      <c r="D13" s="24" t="str">
+      <c r="D13" s="20" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="G13" s="122">
+      <c r="G13" s="100">
         <f t="shared" ref="G13:J16" si="4">G$7*$G27</f>
         <v>6.217565667472468</v>
       </c>
-      <c r="H13" s="122">
+      <c r="H13" s="100">
         <f t="shared" si="4"/>
         <v>12.435131334944936</v>
       </c>
-      <c r="I13" s="122">
+      <c r="I13" s="100">
         <f t="shared" si="4"/>
         <v>18.652697002417401</v>
       </c>
-      <c r="J13" s="122">
+      <c r="J13" s="100">
         <f t="shared" si="4"/>
         <v>24.870262669889872</v>
       </c>
-      <c r="K13" s="67">
+      <c r="K13" s="59">
         <v>0</v>
       </c>
-      <c r="L13" s="93">
+      <c r="L13" s="64">
         <v>0.4929</v>
       </c>
-      <c r="M13" s="72">
+      <c r="M13" s="64">
         <v>0.85</v>
       </c>
-      <c r="N13" s="71"/>
-      <c r="O13" s="72">
+      <c r="N13" s="63"/>
+      <c r="O13" s="64">
         <v>35</v>
       </c>
-      <c r="P13" s="72">
+      <c r="P13" s="64">
         <v>0.4</v>
       </c>
-      <c r="Q13" s="71">
+      <c r="Q13" s="63">
         <v>20</v>
       </c>
-      <c r="R13" s="71">
+      <c r="R13" s="63">
         <v>31.536000000000001</v>
       </c>
-      <c r="S13" s="72">
+      <c r="S13" s="64">
         <v>1</v>
       </c>
-      <c r="T13" s="26"/>
-      <c r="U13" s="34">
+      <c r="U13" s="26">
         <f>G13*$M13*$R13</f>
         <v>166.66557825599997</v>
       </c>
-      <c r="V13" s="37"/>
-      <c r="W13" s="111"/>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="111" t="str">
+      <c r="V13" s="29"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96" t="str">
         <f>$B$2&amp;$C$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$L$6,3)&amp;"00"</f>
         <v>ELCTEGAS00</v>
       </c>
-      <c r="Z13" s="112" t="str">
+      <c r="Z13" s="97" t="str">
         <f>$D$2&amp;" "&amp;$J$1&amp;RIGHT(Y13,2)&amp;" - "&amp;'EB2'!E3</f>
         <v>Power Plants Existing00 - Natural Gas</v>
       </c>
-      <c r="AA13" s="111" t="str">
+      <c r="AA13" s="96" t="str">
         <f t="shared" si="2"/>
         <v>PJ</v>
       </c>
-      <c r="AB13" s="111" t="str">
+      <c r="AB13" s="96" t="str">
         <f t="shared" si="3"/>
         <v>GW</v>
       </c>
-      <c r="AC13" s="111"/>
-      <c r="AD13" s="111"/>
-      <c r="AE13" s="111"/>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="str">
+      <c r="AC13" s="96"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="96"/>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>ELCTEOIL00</v>
       </c>
-      <c r="C14" s="24" t="str">
+      <c r="C14" s="20" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels!L7,3)</f>
         <v>ELCOIL</v>
       </c>
-      <c r="D14" s="24" t="str">
+      <c r="D14" s="20" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="G14" s="122">
+      <c r="G14" s="100">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H14" s="122">
+      <c r="H14" s="100">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I14" s="122">
+      <c r="I14" s="100">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J14" s="122">
+      <c r="J14" s="100">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K14" s="67">
+      <c r="K14" s="59">
         <v>0</v>
       </c>
-      <c r="L14" s="93">
+      <c r="L14" s="64">
         <v>0.25</v>
       </c>
-      <c r="M14" s="93">
+      <c r="M14" s="64">
         <v>0.85</v>
       </c>
-      <c r="N14" s="92"/>
-      <c r="O14" s="93">
+      <c r="N14" s="63"/>
+      <c r="O14" s="64">
         <v>20</v>
       </c>
-      <c r="P14" s="93">
+      <c r="P14" s="64">
         <v>0.2</v>
       </c>
-      <c r="Q14" s="92">
+      <c r="Q14" s="63">
         <v>30</v>
       </c>
-      <c r="R14" s="71">
+      <c r="R14" s="63">
         <v>31.536000000000001</v>
       </c>
-      <c r="S14" s="72">
+      <c r="S14" s="64">
         <v>1</v>
       </c>
-      <c r="T14" s="26"/>
-      <c r="U14" s="34">
+      <c r="U14" s="26">
         <f>G14*$M14*$R14</f>
         <v>0</v>
       </c>
-      <c r="V14" s="37"/>
-      <c r="W14" s="111"/>
-      <c r="X14" s="111"/>
-      <c r="Y14" s="111" t="str">
+      <c r="V14" s="29"/>
+      <c r="W14" s="96"/>
+      <c r="X14" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y14" s="96" t="str">
         <f>$B$2&amp;$C$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$L$7,3)&amp;"00"</f>
         <v>ELCTEOIL00</v>
       </c>
-      <c r="Z14" s="112" t="str">
+      <c r="Z14" s="97" t="str">
         <f>$D$2&amp;" "&amp;$J$1&amp;RIGHT(Y14,2)&amp;" - "&amp;'EB2'!F3</f>
         <v>Power Plants Existing00 - Crude Oil</v>
       </c>
-      <c r="AA14" s="111" t="str">
+      <c r="AA14" s="96" t="str">
         <f t="shared" si="2"/>
         <v>PJ</v>
       </c>
-      <c r="AB14" s="111" t="str">
+      <c r="AB14" s="96" t="str">
         <f t="shared" si="3"/>
         <v>GW</v>
       </c>
-      <c r="AC14" s="111"/>
-      <c r="AD14" s="111"/>
-      <c r="AE14" s="111"/>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="str">
+      <c r="AC14" s="96"/>
+      <c r="AD14" s="96"/>
+      <c r="AE14" s="96"/>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B15" s="20" t="str">
         <f t="shared" si="0"/>
         <v>ELCNENUC00</v>
       </c>
-      <c r="C15" s="24" t="str">
+      <c r="C15" s="20" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels!L8,3)</f>
         <v>ELCNUC</v>
       </c>
-      <c r="D15" s="28" t="str">
+      <c r="D15" s="20" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="122">
+      <c r="G15" s="100">
         <f t="shared" si="4"/>
         <v>6.3308599695586008</v>
       </c>
-      <c r="H15" s="122">
+      <c r="H15" s="100">
         <f t="shared" si="4"/>
         <v>12.661719939117202</v>
       </c>
-      <c r="I15" s="122">
+      <c r="I15" s="100">
         <f t="shared" si="4"/>
         <v>18.9925799086758</v>
       </c>
-      <c r="J15" s="122">
+      <c r="J15" s="100">
         <f t="shared" si="4"/>
         <v>25.323439878234403</v>
       </c>
-      <c r="K15" s="91">
+      <c r="K15" s="59">
         <v>0</v>
       </c>
-      <c r="L15" s="92">
+      <c r="L15" s="63">
         <v>0.33</v>
       </c>
-      <c r="M15" s="93">
+      <c r="M15" s="64">
         <v>0.9</v>
       </c>
-      <c r="N15" s="92"/>
-      <c r="O15" s="93">
+      <c r="N15" s="63"/>
+      <c r="O15" s="64">
         <v>38</v>
       </c>
-      <c r="P15" s="92">
+      <c r="P15" s="63">
         <v>0.27</v>
       </c>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="92">
+      <c r="Q15" s="46"/>
+      <c r="R15" s="63">
         <v>31.536000000000001</v>
       </c>
-      <c r="S15" s="93">
+      <c r="S15" s="64">
         <v>1</v>
       </c>
-      <c r="T15" s="27"/>
-      <c r="U15" s="34">
+      <c r="U15" s="26">
         <f>G15*$M15*$R15</f>
         <v>179.68500000000006</v>
       </c>
-      <c r="V15" s="37"/>
-      <c r="W15" s="111"/>
-      <c r="X15" s="111"/>
-      <c r="Y15" s="111" t="str">
+      <c r="V15" s="29"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="96" t="str">
         <f>$B$2&amp;$H$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$L$8,3)&amp;"00"</f>
         <v>ELCNENUC00</v>
       </c>
-      <c r="Z15" s="121" t="str">
+      <c r="Z15" s="96" t="str">
         <f>$D$2&amp;" "&amp;$J$1&amp;RIGHT(Y15,2)&amp;" - "&amp;'EB2'!N3</f>
         <v>Power Plants Existing00 - Nuclear Energy</v>
       </c>
-      <c r="AA15" s="111" t="str">
+      <c r="AA15" s="96" t="str">
         <f t="shared" si="2"/>
         <v>PJ</v>
       </c>
-      <c r="AB15" s="111" t="str">
+      <c r="AB15" s="96" t="str">
         <f t="shared" si="3"/>
         <v>GW</v>
       </c>
-      <c r="AC15" s="115" t="s">
+      <c r="AC15" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="AD15" s="111"/>
-      <c r="AE15" s="111"/>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B16" s="28" t="str">
+      <c r="AD15" s="96"/>
+      <c r="AE15" s="96"/>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>ELCREBIO00</v>
       </c>
-      <c r="C16" s="24" t="str">
+      <c r="C16" s="20" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels!L9,3)</f>
         <v>ELCBIO</v>
       </c>
-      <c r="D16" s="28" t="str">
+      <c r="D16" s="20" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="122">
+      <c r="G16" s="100">
         <f t="shared" si="4"/>
         <v>0.26007767577794699</v>
       </c>
-      <c r="H16" s="122">
+      <c r="H16" s="100">
         <f t="shared" si="4"/>
         <v>0.52015535155589399</v>
       </c>
-      <c r="I16" s="122">
+      <c r="I16" s="100">
         <f t="shared" si="4"/>
         <v>0.78023302733384081</v>
       </c>
-      <c r="J16" s="122">
+      <c r="J16" s="100">
         <f t="shared" si="4"/>
         <v>1.040310703111788</v>
       </c>
-      <c r="K16" s="91">
+      <c r="K16" s="59">
         <v>0</v>
       </c>
-      <c r="L16" s="73">
+      <c r="L16" s="65">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M16" s="73">
+      <c r="M16" s="65">
         <v>0.6</v>
       </c>
-      <c r="N16" s="73"/>
-      <c r="O16" s="74">
+      <c r="N16" s="65"/>
+      <c r="O16" s="46">
         <v>25</v>
       </c>
-      <c r="P16" s="73">
+      <c r="P16" s="65">
         <v>0.35</v>
       </c>
-      <c r="Q16" s="74">
+      <c r="Q16" s="46">
         <v>25</v>
       </c>
-      <c r="R16" s="92">
+      <c r="R16" s="63">
         <v>31.536000000000001</v>
       </c>
-      <c r="S16" s="93">
+      <c r="S16" s="64">
         <v>1</v>
       </c>
-      <c r="T16" s="27"/>
-      <c r="U16" s="34">
+      <c r="U16" s="26">
         <f>G16*$M16*$R16</f>
         <v>4.9210857500000014</v>
       </c>
-      <c r="V16" s="37"/>
-      <c r="W16" s="111"/>
-      <c r="X16" s="111"/>
-      <c r="Y16" s="111" t="str">
+      <c r="V16" s="29"/>
+      <c r="W16" s="96"/>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="96" t="str">
         <f>$B$2&amp;$G$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$L$9,3)&amp;"00"</f>
         <v>ELCREBIO00</v>
       </c>
-      <c r="Z16" s="121" t="str">
+      <c r="Z16" s="96" t="str">
         <f>$D$2&amp;" "&amp;$J$1&amp;RIGHT(Y16,2)&amp;" - "&amp;'EB2'!O3</f>
         <v>Power Plants Existing00 - Biomass</v>
       </c>
-      <c r="AA16" s="111" t="str">
+      <c r="AA16" s="96" t="str">
         <f t="shared" si="2"/>
         <v>PJ</v>
       </c>
-      <c r="AB16" s="111" t="str">
+      <c r="AB16" s="96" t="str">
         <f t="shared" si="3"/>
         <v>GW</v>
       </c>
-      <c r="AC16" s="115"/>
-      <c r="AD16" s="111"/>
-      <c r="AE16" s="111"/>
-    </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B17" s="28" t="str">
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="96"/>
+      <c r="AE16" s="96"/>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B17" s="20" t="str">
         <f t="shared" si="0"/>
         <v>ELCREHYD00</v>
       </c>
-      <c r="C17" s="24" t="str">
+      <c r="C17" s="20" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels!L10,3)</f>
         <v>ELCHYD</v>
       </c>
-      <c r="D17" s="28" t="str">
+      <c r="D17" s="20" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E17" s="104">
+      <c r="E17" s="46">
         <v>15</v>
       </c>
-      <c r="F17" s="104">
+      <c r="F17" s="46">
         <v>16</v>
       </c>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="73">
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="65">
         <v>1</v>
       </c>
-      <c r="M17" s="73">
+      <c r="M17" s="65">
         <v>0.5</v>
       </c>
-      <c r="N17" s="73"/>
-      <c r="O17" s="74">
+      <c r="N17" s="65"/>
+      <c r="O17" s="46">
         <v>50</v>
       </c>
-      <c r="P17" s="73">
+      <c r="P17" s="65">
         <v>2</v>
       </c>
-      <c r="Q17" s="74">
+      <c r="Q17" s="46">
         <v>200</v>
       </c>
-      <c r="R17" s="92">
+      <c r="R17" s="63">
         <v>31.536000000000001</v>
       </c>
-      <c r="S17" s="93">
+      <c r="S17" s="64">
         <v>0.5</v>
       </c>
-      <c r="T17" s="27"/>
-      <c r="U17" s="34">
+      <c r="U17" s="26">
         <f>(E17+F17)*$M17*$R17</f>
         <v>488.80799999999999</v>
       </c>
-      <c r="V17" s="37"/>
-      <c r="W17" s="111"/>
-      <c r="X17" s="111"/>
-      <c r="Y17" s="111" t="str">
+      <c r="V17" s="29"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96" t="str">
         <f>$B$2&amp;$G$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$L$10,3)&amp;"00"</f>
         <v>ELCREHYD00</v>
       </c>
-      <c r="Z17" s="121" t="str">
+      <c r="Z17" s="96" t="str">
         <f>$D$2&amp;" "&amp;$J$1&amp;RIGHT(Y17,2)&amp;" - "&amp;'EB2'!P3</f>
         <v>Power Plants Existing00 - Hydro power</v>
       </c>
-      <c r="AA17" s="111" t="str">
+      <c r="AA17" s="96" t="str">
         <f t="shared" si="2"/>
         <v>PJ</v>
       </c>
-      <c r="AB17" s="111" t="str">
+      <c r="AB17" s="96" t="str">
         <f t="shared" si="3"/>
         <v>GW</v>
       </c>
-      <c r="AC17" s="115"/>
-      <c r="AD17" s="111"/>
-      <c r="AE17" s="111"/>
-    </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B18" s="28" t="str">
+      <c r="AC17" s="92"/>
+      <c r="AD17" s="96"/>
+      <c r="AE17" s="96"/>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>ELCREWIN00</v>
       </c>
-      <c r="C18" s="24" t="str">
+      <c r="C18" s="20" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels!L11,3)</f>
         <v>ELCWIN</v>
       </c>
-      <c r="D18" s="28" t="str">
+      <c r="D18" s="20" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="122">
+      <c r="G18" s="100">
         <f t="shared" ref="G18:J19" si="5">G$7*$G32</f>
         <v>4.4402179821700374</v>
       </c>
-      <c r="H18" s="122">
+      <c r="H18" s="100">
         <f t="shared" si="5"/>
         <v>8.8804359643400748</v>
       </c>
-      <c r="I18" s="122">
+      <c r="I18" s="100">
         <f t="shared" si="5"/>
         <v>13.320653946510111</v>
       </c>
-      <c r="J18" s="122">
+      <c r="J18" s="100">
         <f t="shared" si="5"/>
         <v>17.76087192868015</v>
       </c>
-      <c r="K18" s="91">
+      <c r="K18" s="59">
         <v>0</v>
       </c>
-      <c r="L18" s="73">
+      <c r="L18" s="65">
         <v>1</v>
       </c>
-      <c r="M18" s="73">
+      <c r="M18" s="65">
         <v>0.35</v>
       </c>
-      <c r="N18" s="73"/>
-      <c r="O18" s="74">
+      <c r="N18" s="65"/>
+      <c r="O18" s="46">
         <v>35</v>
       </c>
-      <c r="P18" s="73">
+      <c r="P18" s="65">
         <v>0.5</v>
       </c>
-      <c r="Q18" s="74">
+      <c r="Q18" s="46">
         <v>20</v>
       </c>
-      <c r="R18" s="92">
+      <c r="R18" s="63">
         <v>31.536000000000001</v>
       </c>
-      <c r="S18" s="93">
+      <c r="S18" s="64">
         <v>0.3</v>
       </c>
-      <c r="T18" s="27"/>
-      <c r="U18" s="34">
+      <c r="U18" s="26">
         <f>G18*$M18*$R18</f>
         <v>49.009350000000005</v>
       </c>
-      <c r="V18" s="37"/>
-      <c r="W18" s="111"/>
-      <c r="X18" s="111"/>
-      <c r="Y18" s="111" t="str">
+      <c r="V18" s="29"/>
+      <c r="W18" s="96"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="96" t="str">
         <f>$B$2&amp;$G$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$L$11,3)&amp;"00"</f>
         <v>ELCREWIN00</v>
       </c>
-      <c r="Z18" s="121" t="str">
+      <c r="Z18" s="96" t="str">
         <f>$D$2&amp;" "&amp;$J$1&amp;RIGHT(Y18,2)&amp;" - "&amp;'EB2'!Q3</f>
         <v>Power Plants Existing00 - Wind energy</v>
       </c>
-      <c r="AA18" s="111" t="str">
+      <c r="AA18" s="96" t="str">
         <f t="shared" si="2"/>
         <v>PJ</v>
       </c>
-      <c r="AB18" s="111" t="str">
+      <c r="AB18" s="96" t="str">
         <f t="shared" si="3"/>
         <v>GW</v>
       </c>
-      <c r="AC18" s="115"/>
-      <c r="AD18" s="111"/>
-      <c r="AE18" s="111"/>
-    </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B19" s="28" t="str">
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="96"/>
+      <c r="AE18" s="96"/>
+    </row>
+    <row r="19" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B19" s="20" t="str">
         <f t="shared" si="0"/>
         <v>ELCRESOL00</v>
       </c>
-      <c r="C19" s="24" t="str">
+      <c r="C19" s="20" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels!L12,3)</f>
         <v>ELCSOL</v>
       </c>
-      <c r="D19" s="28" t="str">
-        <f t="shared" si="1"/>
-        <v>ELC</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="122">
+      <c r="G19" s="100">
         <f t="shared" si="5"/>
         <v>0.7187552849653307</v>
       </c>
-      <c r="H19" s="122">
+      <c r="H19" s="100">
         <f t="shared" si="5"/>
         <v>1.4375105699306614</v>
       </c>
-      <c r="I19" s="122">
+      <c r="I19" s="100">
         <f t="shared" si="5"/>
         <v>2.1562658548959917</v>
       </c>
-      <c r="J19" s="122">
+      <c r="J19" s="100">
         <f t="shared" si="5"/>
         <v>2.8750211398613228</v>
       </c>
-      <c r="K19" s="91">
+      <c r="K19" s="59">
         <v>0</v>
       </c>
-      <c r="L19" s="73">
+      <c r="L19" s="65">
         <v>1</v>
       </c>
-      <c r="M19" s="73">
+      <c r="M19" s="65">
         <v>0.3</v>
       </c>
-      <c r="N19" s="73"/>
-      <c r="O19" s="74">
+      <c r="N19" s="65"/>
+      <c r="O19" s="46">
         <v>60</v>
       </c>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="74">
+      <c r="P19" s="65"/>
+      <c r="Q19" s="46">
         <v>15</v>
       </c>
-      <c r="R19" s="92">
+      <c r="R19" s="63">
         <v>31.536000000000001</v>
       </c>
-      <c r="S19" s="93">
+      <c r="S19" s="64">
         <v>0.2</v>
       </c>
-      <c r="T19" s="27"/>
-      <c r="U19" s="34">
+      <c r="U19" s="26">
         <f>G19*$M19*$R19</f>
         <v>6.8000000000000007</v>
       </c>
-      <c r="V19" s="37"/>
-      <c r="W19" s="111"/>
-      <c r="X19" s="111"/>
-      <c r="Y19" s="111" t="str">
+      <c r="V19" s="29"/>
+      <c r="W19" s="96"/>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="96" t="str">
         <f>$B$2&amp;$G$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$L$12,3)&amp;"00"</f>
         <v>ELCRESOL00</v>
       </c>
-      <c r="Z19" s="121" t="str">
+      <c r="Z19" s="96" t="str">
         <f>$D$2&amp;" "&amp;$J$1&amp;RIGHT(Y19,2)&amp;" - "&amp;'EB2'!R3</f>
         <v>Power Plants Existing00 - Solar energy</v>
       </c>
-      <c r="AA19" s="111" t="str">
+      <c r="AA19" s="96" t="str">
         <f t="shared" si="2"/>
         <v>PJ</v>
       </c>
-      <c r="AB19" s="111" t="str">
+      <c r="AB19" s="96" t="str">
         <f t="shared" si="3"/>
         <v>GW</v>
       </c>
-      <c r="AC19" s="115"/>
-      <c r="AD19" s="111"/>
-      <c r="AE19" s="111"/>
-    </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="U22" s="96"/>
-    </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B23" s="56"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="96"/>
+      <c r="AE19" s="96"/>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="D20" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="U22" s="84"/>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B23" s="48"/>
       <c r="C23" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="U23" s="96"/>
-    </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B24" s="66"/>
+      <c r="U23" s="84"/>
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="B24" s="58"/>
       <c r="C24" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="U24" s="96"/>
-    </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="G25" s="24" t="s">
+      <c r="U24" s="84"/>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="G25" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="G26" s="67">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="G26" s="59">
         <f>(-'EB2'!$D$6*$L$12)/($M$12*$R$12)</f>
         <v>48.12379980302623</v>
       </c>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="G27" s="67">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="G27" s="59">
         <f>(-'EB2'!$E$6*$L$13)/($M$13*$R$13)</f>
         <v>62.175656674724678</v>
       </c>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="G28" s="67">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="G28" s="59">
         <f>((-SUM('EB2'!G20:M20)*$L$14)/($M$14*$R$14))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="G29" s="91">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="G29" s="59">
         <f>(-'EB2'!$N$6*$L$15)/($M$15*$R$15)</f>
         <v>63.308599695586004</v>
       </c>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="G30" s="91">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="G30" s="59">
         <f>(-'EB2'!$O$6*$L$16)/($M$16*$R$16)</f>
         <v>2.6007767577794696</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="G31" s="105"/>
-    </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="G32" s="91">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="G31" s="90"/>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.35">
+      <c r="G32" s="59">
         <f>(-'EB2'!$Q$6*$L$18)/($M$18*$R$18)</f>
         <v>44.402179821700372</v>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G33" s="91">
+    <row r="33" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G33" s="59">
         <f>(-'EB2'!$R$6*$L$19)/($M$19*$R$19)</f>
         <v>7.1875528496533061</v>
       </c>
@@ -6993,110 +6942,107 @@
       <selection activeCell="F5" sqref="F5:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="24"/>
-    <col min="2" max="2" width="14.42578125" style="24" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="24"/>
+    <col min="1" max="1" width="8.86328125" style="20"/>
+    <col min="2" max="2" width="14.3984375" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="8.86328125" style="20"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+    <row r="3" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-    </row>
-    <row r="4" spans="2:10" s="26" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="75" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" ht="17.25" x14ac:dyDescent="0.45">
+      <c r="B5" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="76"/>
+      <c r="C5" s="67"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+    <row r="6" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="41" t="str">
+      <c r="C6" s="33" t="str">
         <f>Sector_Fuels!$L$5</f>
         <v>ELCCOA</v>
       </c>
-      <c r="D6" s="41" t="str">
+      <c r="D6" s="33" t="str">
         <f>Sector_Fuels!$L$6</f>
         <v>ELCGAS</v>
       </c>
-      <c r="E6" s="41" t="str">
+      <c r="E6" s="33" t="str">
         <f>Sector_Fuels!$L$7</f>
         <v>ELCOIL</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="2:10" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="42" t="str">
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+    </row>
+    <row r="8" spans="2:10" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="B8" s="34" t="str">
         <f>Con_ELC!$Y$6</f>
         <v>ELCCO2</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="65">
         <v>95</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="65">
         <v>56.1</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="65">
         <v>76.400000000000006</v>
       </c>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F9" s="27"/>
-      <c r="G9" s="88"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="56"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="G9" s="79"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="48"/>
       <c r="C23" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="66"/>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="58"/>
       <c r="C24" s="1" t="s">
         <v>147</v>
       </c>
